--- a/DBstructure.xlsx
+++ b/DBstructure.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20378"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20379"/>
   <workbookPr codeName="현재_통합_문서" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jiheun\Desktop\TSS_project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jiheun\Desktop\TSS_project\dongle\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B6E58C0-B604-4ADE-8FFE-61BE07E6D2F7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A274A738-FCAA-4844-8282-6552D217DE67}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="18270" windowHeight="6760" xr2:uid="{2C85DE0A-90A8-45EB-A7EE-461A854230CF}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="DB structure" sheetId="7" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="57">
   <si>
     <t>PlantName</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -39,10 +40,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>UserId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>GPS</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -71,9 +68,6 @@
   </si>
   <si>
     <t>Pinus densiflora for. multicaulis Uyeki</t>
-  </si>
-  <si>
-    <t>https://terms.naver.com/entry.naver?docId=5782195&amp;cid=62861&amp;categoryId=62861</t>
   </si>
   <si>
     <r>
@@ -104,49 +98,6 @@
     <t>BOOLEAN</t>
   </si>
   <si>
-    <t>특별한</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>희귀한</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>사진명소</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>동물</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Order</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -163,10 +114,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>DATE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Tumbnail</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -207,10 +154,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">VARCHAR(255) </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>datetime YYYY-MM-DD HH:MM:SS 문자형</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -263,10 +206,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Group</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>VARCHAR(32)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -292,6 +231,32 @@
   </si>
   <si>
     <t>picture</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://terms.naver.com/entry.naver?docId=5782195&amp;cid=62861&amp;categoryId=62861</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UserID</t>
+  </si>
+  <si>
+    <t>Date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Upload</t>
+  </si>
+  <si>
+    <t>special</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>animal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Admin</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -299,7 +264,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -356,13 +321,28 @@
       <name val="times"/>
       <family val="1"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -374,12 +354,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -407,9 +390,28 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="하이퍼링크" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -724,8 +726,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:I29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="65" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" zoomScale="93" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -735,54 +737,54 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>36</v>
+        <v>28</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>29</v>
       </c>
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
       <c r="G1" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H1" s="3"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>6</v>
-      </c>
       <c r="G2" s="3" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B3" s="4"/>
       <c r="C3" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>3</v>
+        <v>36</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>51</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>0</v>
@@ -791,7 +793,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>2</v>
@@ -799,117 +801,117 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>12</v>
+      <c r="H4" s="9" t="s">
+        <v>50</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>7</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="F7" s="13"/>
       <c r="G7" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I7" s="3"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B8" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F8" s="3"/>
+        <v>43</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>30</v>
+      </c>
       <c r="G8" s="3" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B9" s="4"/>
       <c r="C9" s="1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>3</v>
+        <v>51</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B10" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
@@ -918,81 +920,81 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>7</v>
+        <v>29</v>
+      </c>
+      <c r="F13" s="13" t="s">
+        <v>6</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H13" s="3"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B14" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>38</v>
+        <v>43</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" s="13" t="s">
+        <v>32</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B15" s="4"/>
       <c r="C15" s="1" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="D15" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F15" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="G15" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="H15" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B16" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
@@ -1001,27 +1003,27 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.45">
       <c r="C17" s="2" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="F19" s="5"/>
       <c r="G19" s="5"/>
@@ -1029,57 +1031,49 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B20" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>17</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B21" s="4"/>
       <c r="C21" s="1" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>21</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B22" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C22" s="1">
         <v>1</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="E22" s="1">
         <v>1</v>
@@ -1087,66 +1081,66 @@
       <c r="F22" s="1">
         <v>0</v>
       </c>
-      <c r="G22" s="1">
-        <v>0</v>
-      </c>
-      <c r="H22" s="1">
-        <v>1</v>
-      </c>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B26" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B27" s="4"/>
       <c r="C27" s="1" t="s">
-        <v>3</v>
+        <v>51</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B28" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.45">
       <c r="C29" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D29" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="H4" r:id="rId1" xr:uid="{E7AE650C-E4D3-4A54-B2A5-3ACD02AF9543}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>